--- a/项目实战/项目实战DAY03/测试范围列表.xlsx
+++ b/项目实战/项目实战DAY03/测试范围列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\GitWorksplace\Test\项目实战\项目实战DAY03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B66C87-6FA6-4C19-B73C-DDE33CAAA26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0860AC-3F92-41A2-9642-469359EEE4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共部分测试分析" sheetId="1" r:id="rId1"/>
@@ -683,6 +683,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
       <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1409,22 +1409,22 @@
       <c r="F5" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
@@ -1477,13 +1477,13 @@
       <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1510,22 +1510,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,94 +1680,94 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
   <dimension ref="C4:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
